--- a/Datos/1.2.5.IPC_Serie_variaciones.xlsx
+++ b/Datos/1.2.5.IPC_Serie_variaciones.xlsx
@@ -184,48 +184,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,1694 +318,1694 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="0.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="0.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>201507</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>85.37</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>4.46</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>3.52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>201508</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <v>85.78</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>4.74</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.48</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="11" t="n">
         <v>4.02</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>201509</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>86.39</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>5.35</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.72</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>4.76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>201510</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <v>86.98</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>5.89</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="10" t="n">
         <v>0.68</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="11" t="n">
         <v>5.47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>201511</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="7" t="n">
         <v>87.51</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>6.39</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>6.11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>201512</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>88.05</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>6.77</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="10" t="n">
         <v>0.62</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <v>6.77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>201601</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="7" t="n">
         <v>89.19</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>7.45</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>1.29</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>201602</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>90.33</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>7.59</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="10" t="n">
         <v>1.28</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="11" t="n">
         <v>2.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>201603</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="7" t="n">
         <v>91.18</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>7.98</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>0.94</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>3.55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>201604</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <v>91.63</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>7.93</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="11" t="n">
         <v>4.07</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>201605</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="7" t="n">
         <v>92.1</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>8.2</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>0.51</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>201606</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <v>92.54</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>8.6</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="10" t="n">
         <v>0.48</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="11" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>201607</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="7" t="n">
         <v>93.02</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>8.97</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>0.52</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>201608</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <v>92.73</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>8.1</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="10" t="n">
         <v>-0.32</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="11" t="n">
         <v>5.31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>201609</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="7" t="n">
         <v>92.68</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>7.27</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>5.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>201610</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="10" t="n">
         <v>92.62</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <v>6.48</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="10" t="n">
         <v>-0.06</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="11" t="n">
         <v>5.19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>201611</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="7" t="n">
         <v>92.73</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>5.96</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>0.11</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>5.31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>201612</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="10" t="n">
         <v>93.11</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>5.75</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="10" t="n">
         <v>0.42</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="11" t="n">
         <v>5.75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>201701</v>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="7" t="n">
         <v>94.07</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>5.47</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>1.02</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>201702</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <v>95.01</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>5.18</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="11" t="n">
         <v>2.04</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>201703</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="7" t="n">
         <v>95.46</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>4.69</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>0.47</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="8" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="9" t="n">
         <v>201704</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="10" t="n">
         <v>95.91</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="10" t="n">
         <v>4.66</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="10" t="n">
         <v>0.47</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E23" s="11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>201705</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="7" t="n">
         <v>96.12</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>4.37</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>0.23</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="8" t="n">
         <v>3.23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>201706</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="10" t="n">
         <v>96.23</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <v>3.99</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="10" t="n">
         <v>0.11</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="11" t="n">
         <v>3.35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>201707</v>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B26" s="7" t="n">
         <v>96.18</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <v>3.4</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="8" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>201708</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="10" t="n">
         <v>96.32</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="10" t="n">
         <v>3.87</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="10" t="n">
         <v>0.14</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="11" t="n">
         <v>3.44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>201709</v>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B28" s="7" t="n">
         <v>96.36</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>3.97</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="8" t="n">
         <v>3.49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>201710</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="10" t="n">
         <v>96.37</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="10" t="n">
         <v>4.05</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="11" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>201711</v>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B30" s="7" t="n">
         <v>96.55</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>4.12</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="8" t="n">
         <v>3.69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>201712</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="10" t="n">
         <v>96.92</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="10" t="n">
         <v>4.09</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="10" t="n">
         <v>0.38</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="11" t="n">
         <v>4.09</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>201801</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="7" t="n">
         <v>97.53</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="7" t="n">
         <v>3.68</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <v>0.63</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="8" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="9" t="n">
         <v>201802</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="10" t="n">
         <v>98.22</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="10" t="n">
         <v>3.37</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="10" t="n">
         <v>0.71</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="11" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>201803</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="7" t="n">
         <v>98.45</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="7" t="n">
         <v>3.14</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="8" t="n">
         <v>1.58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="9" t="n">
         <v>201804</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="10" t="n">
         <v>98.91</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="10" t="n">
         <v>3.13</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="11" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>201805</v>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="7" t="n">
         <v>99.16</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="7" t="n">
         <v>3.16</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="8" t="n">
         <v>2.31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="9" t="n">
         <v>201806</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="10" t="n">
         <v>99.31</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="10" t="n">
         <v>3.2</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="10" t="n">
         <v>0.15</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="11" t="n">
         <v>2.47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>201807</v>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B38" s="7" t="n">
         <v>99.18</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="7" t="n">
         <v>3.12</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="7" t="n">
         <v>-0.13</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="8" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="9" t="n">
         <v>201808</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="10" t="n">
         <v>99.3</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="10" t="n">
         <v>3.1</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="10" t="n">
         <v>0.12</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="11" t="n">
         <v>2.46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="6" t="n">
         <v>201809</v>
       </c>
-      <c r="B40" s="6" t="n">
+      <c r="B40" s="7" t="n">
         <v>99.47</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <v>3.23</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="8" t="n">
         <v>2.63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="9" t="n">
         <v>201810</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="10" t="n">
         <v>99.59</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="10" t="n">
         <v>3.33</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="10" t="n">
         <v>0.12</v>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E41" s="11" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="6" t="n">
         <v>201811</v>
       </c>
-      <c r="B42" s="6" t="n">
+      <c r="B42" s="7" t="n">
         <v>99.7</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <v>3.27</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="8" t="n">
         <v>2.87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="9" t="n">
         <v>201812</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="10" t="n">
         <v>3.18</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="11" t="n">
         <v>3.18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="6" t="n">
         <v>201901</v>
       </c>
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="7" t="n">
         <v>100.6</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="7" t="n">
         <v>3.15</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="8" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="9" t="n">
         <v>201902</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="10" t="n">
         <v>101.18</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="10" t="n">
         <v>3.01</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="10" t="n">
         <v>0.57</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="11" t="n">
         <v>1.18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="6" t="n">
         <v>201903</v>
       </c>
-      <c r="B46" s="6" t="n">
+      <c r="B46" s="7" t="n">
         <v>101.62</v>
       </c>
-      <c r="C46" s="6" t="n">
+      <c r="C46" s="7" t="n">
         <v>3.21</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="7" t="n">
         <v>0.43</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="8" t="n">
         <v>1.62</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="9" t="n">
         <v>201904</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="10" t="n">
         <v>102.12</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="10" t="n">
         <v>3.25</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="E47" s="10" t="n">
+      <c r="E47" s="11" t="n">
         <v>2.12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="6" t="n">
         <v>201905</v>
       </c>
-      <c r="B48" s="6" t="n">
+      <c r="B48" s="7" t="n">
         <v>102.44</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="7" t="n">
         <v>3.31</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="8" t="n">
         <v>2.44</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="9" t="n">
         <v>201906</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="10" t="n">
         <v>102.71</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="10" t="n">
         <v>3.43</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="10" t="n">
         <v>0.27</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="11" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="6" t="n">
         <v>201907</v>
       </c>
-      <c r="B50" s="6" t="n">
+      <c r="B50" s="7" t="n">
         <v>102.94</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="7" t="n">
         <v>3.79</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="8" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="9" t="n">
         <v>201908</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="10" t="n">
         <v>103.03</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="10" t="n">
         <v>3.75</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E51" s="11" t="n">
         <v>3.03</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="6" t="n">
         <v>201909</v>
       </c>
-      <c r="B52" s="6" t="n">
+      <c r="B52" s="7" t="n">
         <v>103.26</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="7" t="n">
         <v>3.82</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <v>0.23</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="8" t="n">
         <v>3.26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="9" t="n">
         <v>201910</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="10" t="n">
         <v>103.43</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="10" t="n">
         <v>3.86</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="10" t="n">
         <v>0.16</v>
       </c>
-      <c r="E53" s="10" t="n">
+      <c r="E53" s="11" t="n">
         <v>3.43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="6" t="n">
         <v>201911</v>
       </c>
-      <c r="B54" s="6" t="n">
+      <c r="B54" s="7" t="n">
         <v>103.54</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="7" t="n">
         <v>3.84</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="8" t="n">
         <v>3.54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="9" t="n">
         <v>201912</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="10" t="n">
         <v>103.8</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="10" t="n">
         <v>3.8</v>
       </c>
-      <c r="D55" s="9" t="n">
+      <c r="D55" s="10" t="n">
         <v>0.26</v>
       </c>
-      <c r="E55" s="10" t="n">
+      <c r="E55" s="11" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="6" t="n">
         <v>202001</v>
       </c>
-      <c r="B56" s="6" t="n">
+      <c r="B56" s="7" t="n">
         <v>104.24</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="7" t="n">
         <v>3.62</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="8" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="9" t="n">
         <v>202002</v>
       </c>
-      <c r="B57" s="9" t="n">
+      <c r="B57" s="10" t="n">
         <v>104.94</v>
       </c>
-      <c r="C57" s="9" t="n">
+      <c r="C57" s="10" t="n">
         <v>3.72</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D57" s="10" t="n">
         <v>0.67</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E57" s="11" t="n">
         <v>1.09</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="6" t="n">
         <v>202003</v>
       </c>
-      <c r="B58" s="6" t="n">
+      <c r="B58" s="7" t="n">
         <v>105.53</v>
       </c>
-      <c r="C58" s="6" t="n">
+      <c r="C58" s="7" t="n">
         <v>3.86</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="7" t="n">
         <v>0.57</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="8" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="9" t="n">
         <v>202004</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="10" t="n">
         <v>105.7</v>
       </c>
-      <c r="C59" s="9" t="n">
+      <c r="C59" s="10" t="n">
         <v>3.51</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="10" t="n">
         <v>0.16</v>
       </c>
-      <c r="E59" s="10" t="n">
+      <c r="E59" s="11" t="n">
         <v>1.83</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="6" t="n">
         <v>202005</v>
       </c>
-      <c r="B60" s="6" t="n">
+      <c r="B60" s="7" t="n">
         <v>105.36</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="7" t="n">
         <v>2.85</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="7" t="n">
         <v>-0.32</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="8" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="9" t="n">
         <v>202006</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="10" t="n">
         <v>104.97</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C61" s="10" t="n">
         <v>2.19</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="10" t="n">
         <v>-0.38</v>
       </c>
-      <c r="E61" s="10" t="n">
+      <c r="E61" s="11" t="n">
         <v>1.12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="6" t="n">
         <v>202007</v>
       </c>
-      <c r="B62" s="6" t="n">
+      <c r="B62" s="7" t="n">
         <v>104.97</v>
       </c>
-      <c r="C62" s="6" t="n">
+      <c r="C62" s="7" t="n">
         <v>1.97</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="8" t="n">
         <v>1.12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <v>202008</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="10" t="n">
         <v>104.96</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="10" t="n">
         <v>1.88</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="10" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E63" s="10" t="n">
+      <c r="E63" s="11" t="n">
         <v>1.12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="6" t="n">
         <v>202009</v>
       </c>
-      <c r="B64" s="6" t="n">
+      <c r="B64" s="7" t="n">
         <v>105.29</v>
       </c>
-      <c r="C64" s="6" t="n">
+      <c r="C64" s="7" t="n">
         <v>1.97</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="8" t="n">
         <v>1.44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="9" t="n">
         <v>202010</v>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B65" s="10" t="n">
         <v>105.23</v>
       </c>
-      <c r="C65" s="9" t="n">
+      <c r="C65" s="10" t="n">
         <v>1.75</v>
       </c>
-      <c r="D65" s="9" t="n">
+      <c r="D65" s="10" t="n">
         <v>-0.06</v>
       </c>
-      <c r="E65" s="10" t="n">
+      <c r="E65" s="11" t="n">
         <v>1.38</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="6" t="n">
         <v>202011</v>
       </c>
-      <c r="B66" s="6" t="n">
+      <c r="B66" s="7" t="n">
         <v>105.08</v>
       </c>
-      <c r="C66" s="6" t="n">
+      <c r="C66" s="7" t="n">
         <v>1.49</v>
       </c>
-      <c r="D66" s="6" t="n">
+      <c r="D66" s="7" t="n">
         <v>-0.15</v>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="8" t="n">
         <v>1.23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="9" t="n">
         <v>202012</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="10" t="n">
         <v>105.48</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C67" s="10" t="n">
         <v>1.61</v>
       </c>
-      <c r="D67" s="9" t="n">
+      <c r="D67" s="10" t="n">
         <v>0.38</v>
       </c>
-      <c r="E67" s="10" t="n">
+      <c r="E67" s="11" t="n">
         <v>1.61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="6" t="n">
         <v>202101</v>
       </c>
-      <c r="B68" s="6" t="n">
+      <c r="B68" s="7" t="n">
         <v>105.91</v>
       </c>
-      <c r="C68" s="6" t="n">
+      <c r="C68" s="7" t="n">
         <v>1.6</v>
       </c>
-      <c r="D68" s="6" t="n">
+      <c r="D68" s="7" t="n">
         <v>0.41</v>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="8" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <v>202102</v>
       </c>
-      <c r="B69" s="9" t="n">
+      <c r="B69" s="10" t="n">
         <v>106.58</v>
       </c>
-      <c r="C69" s="9" t="n">
+      <c r="C69" s="10" t="n">
         <v>1.56</v>
       </c>
-      <c r="D69" s="9" t="n">
+      <c r="D69" s="10" t="n">
         <v>0.64</v>
       </c>
-      <c r="E69" s="10" t="n">
+      <c r="E69" s="11" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="6" t="n">
         <v>202103</v>
       </c>
-      <c r="B70" s="6" t="n">
+      <c r="B70" s="7" t="n">
         <v>107.12</v>
       </c>
-      <c r="C70" s="6" t="n">
+      <c r="C70" s="7" t="n">
         <v>1.51</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" s="7" t="n">
         <v>0.51</v>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="8" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="9" t="n">
         <v>202104</v>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B71" s="10" t="n">
         <v>107.76</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C71" s="10" t="n">
         <v>1.95</v>
       </c>
-      <c r="D71" s="9" t="n">
+      <c r="D71" s="10" t="n">
         <v>0.59</v>
       </c>
-      <c r="E71" s="10" t="n">
+      <c r="E71" s="11" t="n">
         <v>2.16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="6" t="n">
         <v>202105</v>
       </c>
-      <c r="B72" s="6" t="n">
+      <c r="B72" s="7" t="n">
         <v>108.84</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="7" t="n">
         <v>3.3</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E72" s="7" t="n">
+      <c r="E72" s="8" t="n">
         <v>3.18</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="9" t="n">
         <v>202106</v>
       </c>
-      <c r="B73" s="9" t="n">
+      <c r="B73" s="10" t="n">
         <v>108.78</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C73" s="10" t="n">
         <v>3.63</v>
       </c>
-      <c r="D73" s="9" t="n">
+      <c r="D73" s="10" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E73" s="10" t="n">
+      <c r="E73" s="11" t="n">
         <v>3.13</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="6" t="n">
         <v>202107</v>
       </c>
-      <c r="B74" s="6" t="n">
+      <c r="B74" s="7" t="n">
         <v>109.14</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="7" t="n">
         <v>3.97</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="8" t="n">
         <v>3.47</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="9" t="n">
         <v>202108</v>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B75" s="10" t="n">
         <v>109.62</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C75" s="10" t="n">
         <v>4.44</v>
       </c>
-      <c r="D75" s="9" t="n">
+      <c r="D75" s="10" t="n">
         <v>0.45</v>
       </c>
-      <c r="E75" s="10" t="n">
+      <c r="E75" s="11" t="n">
         <v>3.93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="6" t="n">
         <v>202109</v>
       </c>
-      <c r="B76" s="6" t="n">
+      <c r="B76" s="7" t="n">
         <v>110.04</v>
       </c>
-      <c r="C76" s="6" t="n">
+      <c r="C76" s="7" t="n">
         <v>4.51</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="8" t="n">
         <v>4.33</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
+      <c r="A77" s="9" t="n">
         <v>202110</v>
       </c>
-      <c r="B77" s="9" t="n">
+      <c r="B77" s="10" t="n">
         <v>110.06</v>
       </c>
-      <c r="C77" s="9" t="n">
+      <c r="C77" s="10" t="n">
         <v>4.58</v>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D77" s="10" t="n">
         <v>0.01</v>
       </c>
-      <c r="E77" s="10" t="n">
+      <c r="E77" s="11" t="n">
         <v>4.34</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="6" t="n">
         <v>202111</v>
       </c>
-      <c r="B78" s="6" t="n">
+      <c r="B78" s="7" t="n">
         <v>110.6</v>
       </c>
-      <c r="C78" s="6" t="n">
+      <c r="C78" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="8" t="n">
         <v>4.86</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="9" t="n">
         <v>202112</v>
       </c>
-      <c r="B79" s="9" t="n">
+      <c r="B79" s="10" t="n">
         <v>111.41</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C79" s="10" t="n">
         <v>5.62</v>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D79" s="10" t="n">
         <v>0.73</v>
       </c>
-      <c r="E79" s="10" t="n">
+      <c r="E79" s="11" t="n">
         <v>5.62</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="6" t="n">
         <v>202201</v>
       </c>
-      <c r="B80" s="6" t="n">
+      <c r="B80" s="7" t="n">
         <v>113.26</v>
       </c>
-      <c r="C80" s="6" t="n">
+      <c r="C80" s="7" t="n">
         <v>6.94</v>
       </c>
-      <c r="D80" s="6" t="n">
+      <c r="D80" s="7" t="n">
         <v>1.67</v>
       </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="8" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="9" t="n">
         <v>202202</v>
       </c>
-      <c r="B81" s="9" t="n">
+      <c r="B81" s="10" t="n">
         <v>115.11</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C81" s="10" t="n">
         <v>8.01</v>
       </c>
-      <c r="D81" s="9" t="n">
+      <c r="D81" s="10" t="n">
         <v>1.63</v>
       </c>
-      <c r="E81" s="10" t="n">
+      <c r="E81" s="11" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="6" t="n">
         <v>202203</v>
       </c>
-      <c r="B82" s="6" t="n">
+      <c r="B82" s="7" t="n">
         <v>116.26</v>
       </c>
-      <c r="C82" s="6" t="n">
+      <c r="C82" s="7" t="n">
         <v>8.53</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="8" t="n">
         <v>4.36</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
+      <c r="A83" s="9" t="n">
         <v>202204</v>
       </c>
-      <c r="B83" s="9" t="n">
+      <c r="B83" s="10" t="n">
         <v>117.71</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C83" s="10" t="n">
         <v>9.23</v>
       </c>
-      <c r="D83" s="9" t="n">
+      <c r="D83" s="10" t="n">
         <v>1.25</v>
       </c>
-      <c r="E83" s="10" t="n">
+      <c r="E83" s="11" t="n">
         <v>5.66</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="6" t="n">
         <v>202205</v>
       </c>
-      <c r="B84" s="6" t="n">
+      <c r="B84" s="7" t="n">
         <v>118.7</v>
       </c>
-      <c r="C84" s="6" t="n">
+      <c r="C84" s="7" t="n">
         <v>9.07</v>
       </c>
-      <c r="D84" s="6" t="n">
+      <c r="D84" s="7" t="n">
         <v>0.84</v>
       </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="8" t="n">
         <v>6.55</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="n">
+      <c r="A85" s="9" t="n">
         <v>202206</v>
       </c>
-      <c r="B85" s="9" t="n">
+      <c r="B85" s="10" t="n">
         <v>119.31</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="10" t="n">
         <v>9.67</v>
       </c>
-      <c r="D85" s="9" t="n">
+      <c r="D85" s="10" t="n">
         <v>0.51</v>
       </c>
-      <c r="E85" s="10" t="n">
+      <c r="E85" s="11" t="n">
         <v>7.09</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="6" t="n">
         <v>202207</v>
       </c>
-      <c r="B86" s="6" t="n">
+      <c r="B86" s="7" t="n">
         <v>120.27</v>
       </c>
-      <c r="C86" s="6" t="n">
+      <c r="C86" s="7" t="n">
         <v>10.21</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" s="7" t="n">
         <v>0.81</v>
       </c>
-      <c r="E86" s="7" t="n">
+      <c r="E86" s="8" t="n">
         <v>7.96</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="9" t="n">
         <v>202208</v>
       </c>
-      <c r="B87" s="9" t="n">
+      <c r="B87" s="10" t="n">
         <v>121.5</v>
       </c>
-      <c r="C87" s="9" t="n">
+      <c r="C87" s="10" t="n">
         <v>10.84</v>
       </c>
-      <c r="D87" s="9" t="n">
+      <c r="D87" s="10" t="n">
         <v>1.02</v>
       </c>
-      <c r="E87" s="10" t="n">
+      <c r="E87" s="11" t="n">
         <v>9.06</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="6" t="n">
         <v>202209</v>
       </c>
-      <c r="B88" s="6" t="n">
+      <c r="B88" s="7" t="n">
         <v>122.63</v>
       </c>
-      <c r="C88" s="6" t="n">
+      <c r="C88" s="7" t="n">
         <v>11.44</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="E88" s="7" t="n">
+      <c r="E88" s="8" t="n">
         <v>10.08</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="9" t="n">
         <v>202210</v>
       </c>
-      <c r="B89" s="9" t="n">
+      <c r="B89" s="10" t="n">
         <v>123.51</v>
       </c>
-      <c r="C89" s="9" t="n">
+      <c r="C89" s="10" t="n">
         <v>12.22</v>
       </c>
-      <c r="D89" s="9" t="n">
+      <c r="D89" s="10" t="n">
         <v>0.72</v>
       </c>
-      <c r="E89" s="10" t="n">
+      <c r="E89" s="11" t="n">
         <v>10.86</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="6" t="n">
         <v>202211</v>
       </c>
-      <c r="B90" s="6" t="n">
+      <c r="B90" s="7" t="n">
         <v>124.46</v>
       </c>
-      <c r="C90" s="6" t="n">
+      <c r="C90" s="7" t="n">
         <v>12.53</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="7" t="n">
         <v>0.77</v>
       </c>
-      <c r="E90" s="7" t="n">
+      <c r="E90" s="8" t="n">
         <v>11.72</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
+      <c r="A91" s="9" t="n">
         <v>202212</v>
       </c>
-      <c r="B91" s="9" t="n">
+      <c r="B91" s="10" t="n">
         <v>126.03</v>
       </c>
-      <c r="C91" s="9" t="n">
+      <c r="C91" s="10" t="n">
         <v>13.12</v>
       </c>
-      <c r="D91" s="9" t="n">
+      <c r="D91" s="10" t="n">
         <v>1.26</v>
       </c>
-      <c r="E91" s="10" t="n">
+      <c r="E91" s="11" t="n">
         <v>13.12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="6" t="n">
         <v>202301</v>
       </c>
-      <c r="B92" s="6" t="n">
+      <c r="B92" s="7" t="n">
         <v>128.27</v>
       </c>
-      <c r="C92" s="6" t="n">
+      <c r="C92" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" s="7" t="n">
         <v>1.78</v>
       </c>
-      <c r="E92" s="7" t="n">
+      <c r="E92" s="8" t="n">
         <v>1.78</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="n">
+      <c r="A93" s="9" t="n">
         <v>202302</v>
       </c>
-      <c r="B93" s="9" t="n">
+      <c r="B93" s="10" t="n">
         <v>130.4</v>
       </c>
-      <c r="C93" s="9" t="n">
+      <c r="C93" s="10" t="n">
         <v>13.28</v>
       </c>
-      <c r="D93" s="9" t="n">
+      <c r="D93" s="10" t="n">
         <v>1.66</v>
       </c>
-      <c r="E93" s="10" t="n">
+      <c r="E93" s="11" t="n">
         <v>3.47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="6" t="n">
         <v>202303</v>
       </c>
-      <c r="B94" s="6" t="n">
+      <c r="B94" s="7" t="n">
         <v>131.77</v>
       </c>
-      <c r="C94" s="6" t="n">
+      <c r="C94" s="7" t="n">
         <v>13.34</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="E94" s="7" t="n">
+      <c r="E94" s="8" t="n">
         <v>4.56</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="n">
+      <c r="A95" s="9" t="n">
         <v>202304</v>
       </c>
-      <c r="B95" s="9" t="n">
+      <c r="B95" s="10" t="n">
         <v>132.8</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="C95" s="10" t="n">
         <v>12.82</v>
       </c>
-      <c r="D95" s="9" t="n">
+      <c r="D95" s="10" t="n">
         <v>0.78</v>
       </c>
-      <c r="E95" s="10" t="n">
+      <c r="E95" s="11" t="n">
         <v>5.38</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
+      <c r="A96" s="6" t="n">
         <v>202305</v>
       </c>
-      <c r="B96" s="6" t="n">
+      <c r="B96" s="7" t="n">
         <v>133.38</v>
       </c>
-      <c r="C96" s="6" t="n">
+      <c r="C96" s="7" t="n">
         <v>12.36</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" s="7" t="n">
         <v>0.43</v>
       </c>
-      <c r="E96" s="7" t="n">
+      <c r="E96" s="8" t="n">
         <v>5.83</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="n">
+      <c r="A97" s="9" t="n">
         <v>202306</v>
       </c>
-      <c r="B97" s="9" t="n">
+      <c r="B97" s="10" t="n">
         <v>133.78</v>
       </c>
-      <c r="C97" s="9" t="n">
+      <c r="C97" s="10" t="n">
         <v>12.13</v>
       </c>
-      <c r="D97" s="9" t="n">
+      <c r="D97" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="E97" s="10" t="n">
+      <c r="E97" s="11" t="n">
         <v>6.15</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
+      <c r="A98" s="6" t="n">
         <v>202307</v>
       </c>
-      <c r="B98" s="6" t="n">
+      <c r="B98" s="7" t="n">
         <v>134.45</v>
       </c>
-      <c r="C98" s="6" t="n">
+      <c r="C98" s="7" t="n">
         <v>11.78</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="E98" s="7" t="n">
+      <c r="E98" s="8" t="n">
         <v>6.68</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="n">
+      <c r="A99" s="9" t="n">
         <v>202308</v>
       </c>
-      <c r="B99" s="9" t="n">
+      <c r="B99" s="10" t="n">
         <v>135.39</v>
       </c>
-      <c r="C99" s="9" t="n">
+      <c r="C99" s="10" t="n">
         <v>11.43</v>
       </c>
-      <c r="D99" s="9" t="n">
+      <c r="D99" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="E99" s="10" t="n">
+      <c r="E99" s="11" t="n">
         <v>7.43</v>
       </c>
     </row>
